--- a/관련 폴더/오라클 명령.xlsx
+++ b/관련 폴더/오라클 명령.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D2F191-03A1-474F-B56E-C3E895CEDCDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43090B5C-6A59-4A68-AAF0-EB125891FCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="4550" windowWidth="17200" windowHeight="14700" xr2:uid="{2FD07D24-DF78-4AC0-8013-F98C34BF8F3F}"/>
+    <workbookView xWindow="2990" yWindow="7300" windowWidth="21580" windowHeight="14750" xr2:uid="{2FD07D24-DF78-4AC0-8013-F98C34BF8F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>SELECT * FROM 테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 삭제 (행 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 테이블명 WHERE 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC0894B-2B85-4CBE-8B52-B44AE084A2D2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -482,6 +490,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
